--- a/BILI.xlsx
+++ b/BILI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7E3404-8A48-F947-A5F7-AE0FD53652F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6EC1E1-E945-F74A-9959-45C870AC4FB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="460" windowWidth="27240" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-63660" yWindow="-960" windowWidth="27240" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:FV74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
       <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
@@ -1522,7 +1522,7 @@
         <v>67903.356801749513</v>
       </c>
       <c r="K20" s="19">
-        <f t="shared" ref="K20:S20" si="4">J20*1.2</f>
+        <f t="shared" ref="K20:N20" si="4">J20*1.2</f>
         <v>81484.028162099406</v>
       </c>
       <c r="L20" s="19">
@@ -1753,7 +1753,7 @@
         <v>3817.5835732125006</v>
       </c>
       <c r="K23" s="11">
-        <f t="shared" ref="K23:S23" si="11">J23*1.15</f>
+        <f t="shared" ref="K23:N23" si="11">J23*1.15</f>
         <v>4390.2211091943755</v>
       </c>
       <c r="L23" s="11">
@@ -1830,7 +1830,7 @@
         <v>3280.4410890240006</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:S24" si="14">J24*1.1</f>
+        <f t="shared" ref="K24:N24" si="14">J24*1.1</f>
         <v>3608.4851979264008</v>
       </c>
       <c r="L24" s="11">
@@ -1907,7 +1907,7 @@
         <v>1898.5331726074219</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" ref="K25:S25" si="17">J25*1.05</f>
+        <f t="shared" ref="K25:N25" si="17">J25*1.05</f>
         <v>1993.459831237793</v>
       </c>
       <c r="L25" s="11">
@@ -1923,7 +1923,7 @@
         <v>2307.6789371366508</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" ref="N25:S25" si="18">N25*0.98</f>
+        <f t="shared" ref="O25:S25" si="18">N25*0.98</f>
         <v>2261.5253583939179</v>
       </c>
       <c r="P25" s="11">
